--- a/Planilhas/local/Suprimentos/Compras/Formulários/Gráfico_Itens_Zerados.xlsx
+++ b/Planilhas/local/Suprimentos/Compras/Formulários/Gráfico_Itens_Zerados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Suprimentos\Compras\Formulários\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C217DA71-9899-4CF3-9BAC-A2A0B7DDA429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B429EA-CE16-46BF-90A9-8D45F96C465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16284" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pendentes" sheetId="9" r:id="rId1"/>
@@ -19,11 +19,24 @@
     <sheet name="Gráfico_Zerados" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
   <si>
     <t>Data</t>
   </si>
@@ -458,6 +471,9 @@
   </si>
   <si>
     <t>06.11</t>
+  </si>
+  <si>
+    <t>23.10</t>
   </si>
 </sst>
 </file>
@@ -524,7 +540,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -533,7 +549,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,9 +749,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Pendentes!$A$2:$A$91</c:f>
+              <c:f>Pendentes!$A$2:$A$92</c:f>
               <c:strCache>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>04.01</c:v>
                 </c:pt>
@@ -1005,16 +1021,19 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>06.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23.10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pendentes!$B$2:$B$91</c:f>
+              <c:f>Pendentes!$B$2:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>138</c:v>
                 </c:pt>
@@ -1284,6 +1303,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +2939,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tabPendentes" displayName="tabPendentes" ref="A1:C91" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tabPendentes" displayName="tabPendentes" ref="A1:C92" totalsRowShown="0">
+  <autoFilter ref="A1:C92" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Itens Zerados" dataDxfId="5"/>
@@ -2939,9 +2962,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2979,9 +3002,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3014,26 +3037,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3066,26 +3072,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3260,20 +3249,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="70.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3284,7 +3273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -3295,7 +3284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -3306,7 +3295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -3317,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -3328,7 +3317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -3339,7 +3328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -3350,7 +3339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -3361,7 +3350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -3372,7 +3361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3383,7 +3372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3394,7 +3383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -3405,7 +3394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
@@ -3416,7 +3405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
@@ -3427,7 +3416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -3438,7 +3427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
@@ -3449,7 +3438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -3460,7 +3449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -3471,7 +3460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -3482,7 +3471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -3493,7 +3482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3504,7 +3493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -3515,7 +3504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
@@ -3526,7 +3515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
@@ -3537,7 +3526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>47</v>
       </c>
@@ -3548,7 +3537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
@@ -3559,7 +3548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>50</v>
       </c>
@@ -3570,7 +3559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
@@ -3581,7 +3570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
@@ -3592,7 +3581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>56</v>
       </c>
@@ -3603,7 +3592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>58</v>
       </c>
@@ -3614,7 +3603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>6</v>
       </c>
@@ -3625,7 +3614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
@@ -3636,7 +3625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>63</v>
       </c>
@@ -3647,7 +3636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>64</v>
       </c>
@@ -3658,7 +3647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>66</v>
       </c>
@@ -3669,7 +3658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>68</v>
       </c>
@@ -3680,7 +3669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>70</v>
       </c>
@@ -3691,7 +3680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>72</v>
       </c>
@@ -3702,7 +3691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>74</v>
       </c>
@@ -3713,7 +3702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>76</v>
       </c>
@@ -3724,7 +3713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>78</v>
       </c>
@@ -3735,7 +3724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>80</v>
       </c>
@@ -3746,7 +3735,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>82</v>
       </c>
@@ -3757,7 +3746,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>83</v>
       </c>
@@ -3768,7 +3757,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>84</v>
       </c>
@@ -3779,7 +3768,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>86</v>
       </c>
@@ -3790,7 +3779,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>87</v>
       </c>
@@ -3801,7 +3790,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>88</v>
       </c>
@@ -3812,7 +3801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>90</v>
       </c>
@@ -3823,7 +3812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>35</v>
       </c>
@@ -3834,7 +3823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>92</v>
       </c>
@@ -3845,7 +3834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>93</v>
       </c>
@@ -3856,7 +3845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>94</v>
       </c>
@@ -3867,7 +3856,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>95</v>
       </c>
@@ -3878,7 +3867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>96</v>
       </c>
@@ -3889,7 +3878,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>98</v>
       </c>
@@ -3900,7 +3889,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>100</v>
       </c>
@@ -3911,7 +3900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>101</v>
       </c>
@@ -3922,7 +3911,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>103</v>
       </c>
@@ -3933,7 +3922,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>105</v>
       </c>
@@ -3944,7 +3933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>13</v>
       </c>
@@ -3955,7 +3944,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>108</v>
       </c>
@@ -3966,7 +3955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>109</v>
       </c>
@@ -3977,7 +3966,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>111</v>
       </c>
@@ -3988,7 +3977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>68</v>
       </c>
@@ -3999,7 +3988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>112</v>
       </c>
@@ -4010,7 +3999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>113</v>
       </c>
@@ -4021,7 +4010,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>115</v>
       </c>
@@ -4032,7 +4021,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>117</v>
       </c>
@@ -4043,7 +4032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>119</v>
       </c>
@@ -4054,7 +4043,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>120</v>
       </c>
@@ -4065,7 +4054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>121</v>
       </c>
@@ -4076,7 +4065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>122</v>
       </c>
@@ -4087,7 +4076,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>124</v>
       </c>
@@ -4098,7 +4087,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>125</v>
       </c>
@@ -4109,7 +4098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>126</v>
       </c>
@@ -4120,7 +4109,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>128</v>
       </c>
@@ -4131,7 +4120,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>101</v>
       </c>
@@ -4142,7 +4131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>130</v>
       </c>
@@ -4153,7 +4142,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>131</v>
       </c>
@@ -4164,7 +4153,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>132</v>
       </c>
@@ -4175,7 +4164,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>134</v>
       </c>
@@ -4186,7 +4175,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>135</v>
       </c>
@@ -4197,7 +4186,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>137</v>
       </c>
@@ -4208,7 +4197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>138</v>
       </c>
@@ -4219,7 +4208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>139</v>
       </c>
@@ -4230,7 +4219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>140</v>
       </c>
@@ -4241,7 +4230,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>142</v>
       </c>
@@ -4252,7 +4241,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>88</v>
       </c>
@@ -4263,7 +4252,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>144</v>
       </c>
@@ -4272,6 +4261,17 @@
       </c>
       <c r="C91" s="8" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="6">
+        <v>1</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4294,10 +4294,10 @@
       <selection activeCell="AA52" sqref="AA52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4311,14 +4311,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43470</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43501</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43529</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43560</v>
       </c>
@@ -4376,7 +4376,7 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
